--- a/data/trans_dic/P32B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Habitat-trans_dic.xlsx
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00207424198869266</v>
+        <v>0.0020586365014671</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009428972265960997</v>
+        <v>0.01031347739746664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006328021021561499</v>
+        <v>0.00494769168990851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001559010196488274</v>
+        <v>0.00153991656424363</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="inlineStr"/>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001463017925478562</v>
+        <v>0.001472489489131649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.007039082672079771</v>
+        <v>0.007491856766541369</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004699083455230477</v>
+        <v>0.004738754189891828</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002484674436524066</v>
+        <v>0.002461982995871807</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02340558894177741</v>
+        <v>0.02568069635613549</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03735481842705392</v>
+        <v>0.03704065755319393</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02955085541159494</v>
+        <v>0.0311913586093648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01741810076886926</v>
+        <v>0.01764640870512208</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.02055255862958465</v>
+        <v>0.02535206546912867</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01756641579387349</v>
+        <v>0.01923170705721518</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02397649000099711</v>
+        <v>0.02516946300296016</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02445732390604806</v>
+        <v>0.02317621033702908</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0149135115624989</v>
+        <v>0.01523104415969594</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0.03045996131779046</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02464069978312617</v>
+        <v>0.02464069978312616</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.007981815579912985</v>
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003248980179177141</v>
+        <v>0.003275286506477106</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01175520839573323</v>
+        <v>0.01061769493575369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01766842094626974</v>
+        <v>0.01829822764028683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01318480419738179</v>
+        <v>0.01299853778363424</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -857,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0106309714209935</v>
+        <v>0.01059753571892724</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003373173240442261</v>
+        <v>0.003575884749800027</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008829064693354594</v>
+        <v>0.009255692946427013</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01269439915253152</v>
+        <v>0.01332209059627957</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01480790347842046</v>
+        <v>0.01532111441849464</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01847776628425127</v>
+        <v>0.01877657416661235</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03799010310734151</v>
+        <v>0.03759787289746057</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05069916867453295</v>
+        <v>0.05335110280974649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05051392405150405</v>
+        <v>0.04972949643343341</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03127521692785996</v>
+        <v>0.02934358999372022</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02225611041469576</v>
+        <v>0.02385320518401631</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01949342833295344</v>
+        <v>0.0199060596609183</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05460993471541586</v>
+        <v>0.05657752260363572</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01650439570401858</v>
+        <v>0.01780933129353962</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02736229247073337</v>
+        <v>0.02823774447495835</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03446951706826723</v>
+        <v>0.03560784567206877</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04226681843438996</v>
+        <v>0.04275608979547139</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.009170803291942142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01840134584347033</v>
+        <v>0.01840134584347032</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002317864576779272</v>
+        <v>0.00232569381329307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01356119426817053</v>
+        <v>0.01362704731609361</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002453860413163177</v>
+        <v>0.002482193826188266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006356886424825816</v>
+        <v>0.006299020982927016</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
@@ -989,19 +989,19 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.007219029862816746</v>
+        <v>0.007097837161705508</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001664966836429758</v>
+        <v>0.001683204671545628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01024703756309545</v>
+        <v>0.01015554261818761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001598847199864271</v>
+        <v>0.001609750677961982</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.009805724624792027</v>
+        <v>0.009406338950301348</v>
       </c>
     </row>
     <row r="12">
@@ -1012,36 +1012,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02168067954030652</v>
+        <v>0.02256781416535822</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04712020530488083</v>
+        <v>0.04807586213465032</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02648067660196616</v>
+        <v>0.02766184360203003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04480947606292628</v>
+        <v>0.04819878539978637</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.02184769077480309</v>
+        <v>0.02425075167506629</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.06669720871787009</v>
+        <v>0.06881497908758935</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01540610591961904</v>
+        <v>0.01598957984757141</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03320039960457163</v>
+        <v>0.03329362819044084</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01716995325868719</v>
+        <v>0.01533654183498808</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04294217558983535</v>
+        <v>0.03981148159066561</v>
       </c>
     </row>
     <row r="13">
@@ -1100,40 +1100,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001680723809332322</v>
+        <v>0.00274360006400194</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02763633801282886</v>
+        <v>0.02893816400325038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01374816996471112</v>
+        <v>0.01507729398358607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01870352003133593</v>
+        <v>0.01790454573107752</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009943991151883776</v>
+        <v>0.00969320433190256</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.003040185818484534</v>
+        <v>0.003042139237078254</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01149225290444444</v>
+        <v>0.009928227330823245</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005721444405678217</v>
+        <v>0.006140072627090006</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007001693647929571</v>
+        <v>0.006998025365172751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02157448815742328</v>
+        <v>0.02084386471882561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01585394550756284</v>
+        <v>0.01577138258800244</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0177121471336455</v>
+        <v>0.0160953518120689</v>
       </c>
     </row>
     <row r="15">
@@ -1144,40 +1144,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0183594612442231</v>
+        <v>0.02070181923934419</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06357850940217302</v>
+        <v>0.0662057869295965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04118690041335779</v>
+        <v>0.04081291338401085</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05568520387455811</v>
+        <v>0.0544312514605434</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04368644325186865</v>
+        <v>0.0463906992491537</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02650825398693723</v>
+        <v>0.02627607692629846</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04090714738826035</v>
+        <v>0.03823051423224366</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04504699754807457</v>
+        <v>0.04831220187060148</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0248165745111405</v>
+        <v>0.0230930315675068</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04575445385010773</v>
+        <v>0.0452195733529441</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03522402621839996</v>
+        <v>0.03349372783278345</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04250671966542024</v>
+        <v>0.04048484318988867</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.01715439910276291</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02071503823280385</v>
+        <v>0.02071503823280386</v>
       </c>
     </row>
     <row r="17">
@@ -1236,40 +1236,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004720377779694115</v>
+        <v>0.004919208140667044</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02183725375963793</v>
+        <v>0.02158982205069808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01491885692777258</v>
+        <v>0.01457452095551534</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01450507408791899</v>
+        <v>0.01517951670720425</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.002916846375051432</v>
+        <v>0.002959165890967254</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005194030710306276</v>
+        <v>0.00575511526992899</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01159679876981761</v>
+        <v>0.01136709757893819</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005874340007319813</v>
+        <v>0.005868327643537218</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01602602527691192</v>
+        <v>0.0166359273610199</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0128204070235271</v>
+        <v>0.01289779516664207</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01570336073091354</v>
+        <v>0.01526496235001995</v>
       </c>
     </row>
     <row r="18">
@@ -1280,40 +1280,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01320536852441692</v>
+        <v>0.01289902679209168</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03748880031700936</v>
+        <v>0.03698935646267665</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02853495599252737</v>
+        <v>0.02880516240130222</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03031279102622324</v>
+        <v>0.03199657000424741</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01311776030974178</v>
+        <v>0.01390514901540281</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01735462291319657</v>
+        <v>0.01778307388496512</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03183745372938492</v>
+        <v>0.03114575368916072</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01273656622893044</v>
+        <v>0.01299220238073082</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02697281753136162</v>
+        <v>0.02703321172348632</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0222704794329203</v>
+        <v>0.022520919483899</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02826555243181266</v>
+        <v>0.02709389389658603</v>
       </c>
     </row>
     <row r="19">
@@ -1584,16 +1584,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4037</v>
+        <v>4415</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2719</v>
+        <v>2126</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -1604,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4248</v>
+        <v>4522</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2887</v>
+        <v>2912</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1308</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="7">
@@ -1624,36 +1624,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10283</v>
+        <v>11282</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15993</v>
+        <v>15858</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12699</v>
+        <v>13404</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6151</v>
+        <v>6232</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>3796</v>
+        <v>4682</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10890</v>
+        <v>11922</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14471</v>
+        <v>15191</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15027</v>
+        <v>14240</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7848</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="8">
@@ -1756,16 +1756,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1891</v>
+        <v>1906</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7000</v>
+        <v>6322</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10151</v>
+        <v>10513</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6602</v>
+        <v>6509</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2366</v>
+        <v>2358</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2902</v>
+        <v>3077</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>7875</v>
+        <v>8255</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11385</v>
+        <v>11948</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10710</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="11">
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10752</v>
+        <v>10926</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22621</v>
+        <v>22387</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29129</v>
+        <v>30653</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25293</v>
+        <v>24901</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8710</v>
+        <v>8173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6598</v>
+        <v>7072</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6283</v>
+        <v>6416</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12152</v>
+        <v>12590</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14201</v>
+        <v>15323</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24405</v>
+        <v>25185</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30915</v>
+        <v>31936</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>30569</v>
+        <v>30923</v>
       </c>
     </row>
     <row r="12">
@@ -1936,16 +1936,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6233</v>
+        <v>6263</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2290</v>
+        <v>2269</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -1953,19 +1953,19 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>1452</v>
+        <v>1428</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6828</v>
+        <v>6767</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5504</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="15">
@@ -1976,36 +1976,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7156</v>
+        <v>7449</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21658</v>
+        <v>22097</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11225</v>
+        <v>11726</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16140</v>
+        <v>17360</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>4515</v>
+        <v>5012</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>13415</v>
+        <v>13841</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7093</v>
+        <v>7362</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22122</v>
+        <v>22184</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11222</v>
+        <v>10023</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24104</v>
+        <v>22347</v>
       </c>
     </row>
     <row r="16">
@@ -2108,40 +2108,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>889</v>
+        <v>1450</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15450</v>
+        <v>16178</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7897</v>
+        <v>8661</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8688</v>
+        <v>8317</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3033</v>
+        <v>2957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4690</v>
+        <v>4051</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1761</v>
+        <v>1890</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5837</v>
+        <v>5834</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>20048</v>
+        <v>19369</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>15577</v>
+        <v>15495</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13680</v>
+        <v>12432</v>
       </c>
     </row>
     <row r="19">
@@ -2152,40 +2152,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9706</v>
+        <v>10944</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35543</v>
+        <v>37012</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23659</v>
+        <v>23444</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25867</v>
+        <v>25285</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>13327</v>
+        <v>14152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9813</v>
+        <v>9727</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16693</v>
+        <v>15601</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13867</v>
+        <v>14873</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20690</v>
+        <v>19253</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>42516</v>
+        <v>42019</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>34608</v>
+        <v>32908</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>32831</v>
+        <v>31269</v>
       </c>
     </row>
     <row r="20">
@@ -2288,40 +2288,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8874</v>
+        <v>9248</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>44597</v>
+        <v>44092</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>29877</v>
+        <v>29187</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24348</v>
+        <v>25480</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3059</v>
+        <v>3103</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5946</v>
+        <v>6588</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10490</v>
+        <v>10282</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16298</v>
+        <v>16281</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>49536</v>
+        <v>51421</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>40350</v>
+        <v>40594</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>40564</v>
+        <v>39432</v>
       </c>
     </row>
     <row r="23">
@@ -2332,40 +2332,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24825</v>
+        <v>24249</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>76561</v>
+        <v>75541</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>57145</v>
+        <v>57686</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>50883</v>
+        <v>53709</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>13757</v>
+        <v>14583</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19867</v>
+        <v>20357</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>28799</v>
+        <v>28174</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>35337</v>
+        <v>36046</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>83372</v>
+        <v>83559</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>70093</v>
+        <v>70881</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>73014</v>
+        <v>69988</v>
       </c>
     </row>
     <row r="24">
